--- a/sample_files/temp_kp.xlsx
+++ b/sample_files/temp_kp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Лоток водоотводной пластиковый ЛВП Profi Plastik DN 300 А 15 H 325 в комплекте с решеткой</t>
   </si>
@@ -25,12 +25,6 @@
     <t>Лоток водоотводной пластиковый ЛВП Profi  Plastik DN 300 А15 H 375 в комплекте с решеткой</t>
   </si>
   <si>
-    <t>Лоток водоотводной пластиковый ЛВП Profi Plastik DN 300 А15 H 425 в комплекте с решеткой</t>
-  </si>
-  <si>
-    <t>Лоток водоотводной пластиковый ЛВП Profi Plastik DN 300 А15 H 475 в комплекте с решеткой</t>
-  </si>
-  <si>
     <t>Лоток водоотводной пластиковый ЛВП Profi Plastik DN 300 А15 H 525 в комплекте с решеткой</t>
   </si>
   <si>
@@ -55,12 +49,6 @@
     <t>Пескоуловители бетонные (ПБ) OPTIMA 300 низ</t>
   </si>
   <si>
-    <t>Крепеж решетки к лотку бетонному OPTIMA 300 "комплект"</t>
-  </si>
-  <si>
-    <t>Пескоуловитель пластиковы ПП PROFI DN300 Н1047 А15, комплект</t>
-  </si>
-  <si>
     <t>п/п</t>
   </si>
   <si>
@@ -79,9 +67,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -107,18 +92,6 @@
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
   </si>
 </sst>
 </file>
@@ -528,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -536,7 +509,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="68.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="5" width="11.42578125" style="1" customWidth="1"/>
@@ -545,24 +518,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -579,7 +552,7 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
@@ -596,7 +569,7 @@
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -605,15 +578,15 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="E4" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>4</v>
@@ -622,15 +595,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="E5" s="7">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -639,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>190</v>
+        <v>53</v>
       </c>
       <c r="E6" s="7">
         <v>100</v>
@@ -647,7 +620,7 @@
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
@@ -656,15 +629,15 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E7" s="7">
-        <v>100</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>7</v>
@@ -672,16 +645,16 @@
       <c r="C8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
-        <v>53</v>
+      <c r="D8" s="8">
+        <v>3</v>
       </c>
       <c r="E8" s="7">
-        <v>100</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
@@ -689,16 +662,16 @@
       <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
-        <v>34</v>
+      <c r="D9" s="8">
+        <v>174</v>
       </c>
       <c r="E9" s="7">
-        <v>567</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
@@ -706,16 +679,16 @@
       <c r="C10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>3</v>
       </c>
       <c r="E10" s="7">
-        <v>17.22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -723,96 +696,11 @@
       <c r="C11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="8">
-        <v>174</v>
+      <c r="D11" s="7">
+        <v>3</v>
       </c>
       <c r="E11" s="7">
         <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3</v>
-      </c>
-      <c r="E12" s="7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>3</v>
-      </c>
-      <c r="E14" s="7">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>3</v>
-      </c>
-      <c r="E15" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2</v>
-      </c>
-      <c r="E16" s="7">
-        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/sample_files/temp_kp.xlsx
+++ b/sample_files/temp_kp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Лоток водоотводной пластиковый ЛВП Profi Plastik DN 300 А 15 H 325 в комплекте с решеткой</t>
   </si>
@@ -25,30 +25,6 @@
     <t>Лоток водоотводной пластиковый ЛВП Profi  Plastik DN 300 А15 H 375 в комплекте с решеткой</t>
   </si>
   <si>
-    <t>Лоток водоотводной пластиковый ЛВП Profi Plastik DN 300 А15 H 525 в комплекте с решеткой</t>
-  </si>
-  <si>
-    <t>Заглушка торцовая пластиковая DN300 Н440</t>
-  </si>
-  <si>
-    <t>Лоток водоотводной бетонный ЛВБ OPTIMA DN 300 F900 №10/0 Н500</t>
-  </si>
-  <si>
-    <t>Лоток водоотводной бетонный ЛВБ OPTIMA DN 300 F900 №5/0 Н475</t>
-  </si>
-  <si>
-    <t>Решетка чугунная РЧВ OPTIMA 300 F900 "волна"</t>
-  </si>
-  <si>
-    <t>Крепеж решетки к лотку бетонному OPTIMA300 "комплект"</t>
-  </si>
-  <si>
-    <t>Пескоуловители бетонные (ПБ) OPTIMA 300 верх</t>
-  </si>
-  <si>
-    <t>Пескоуловители бетонные (ПБ) OPTIMA 300 низ</t>
-  </si>
-  <si>
     <t>п/п</t>
   </si>
   <si>
@@ -68,30 +44,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
 </sst>
 </file>
@@ -175,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -193,9 +145,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,24 +467,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -547,12 +496,12 @@
         <v>75</v>
       </c>
       <c r="E2" s="7">
-        <v>456</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
@@ -564,143 +513,7 @@
         <v>138</v>
       </c>
       <c r="E3" s="7">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>190</v>
-      </c>
-      <c r="E4" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>53</v>
-      </c>
-      <c r="E6" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>34</v>
-      </c>
-      <c r="E7" s="7">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8">
-        <v>3</v>
-      </c>
-      <c r="E8" s="7">
-        <v>17.22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8">
-        <v>174</v>
-      </c>
-      <c r="E9" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>3</v>
-      </c>
-      <c r="E10" s="7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>3</v>
-      </c>
-      <c r="E11" s="7">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/sample_files/temp_kp.xlsx
+++ b/sample_files/temp_kp.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="E2" s="7">
         <v>10</v>
@@ -510,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="7">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="E3" s="7">
         <v>10</v>

--- a/sample_files/temp_kp.xlsx
+++ b/sample_files/temp_kp.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,10 +493,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E2" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -510,10 +510,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E3" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
